--- a/biology/Histoire de la zoologie et de la botanique/Genera_plantarum_(Jussieu)/Genera_plantarum_(Jussieu).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Genera_plantarum_(Jussieu)/Genera_plantarum_(Jussieu).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Genera Plantarum est un ouvrage du botaniste français Antoine-Laurent de Jussieu publié en 1789. L'auteur reprend la méthode de classification naturelle des plantes proposée par son oncle Bernard de Jussieu. Alors que celui-ci s'était abstenu de publier quoi que soit sur le sujet, son neveu, Antoine-Laurent fit la présentation de ce système en 1774 dans un mémoire qu'il lut à l'Académie des sciences intitulé: Exposition d'un nouvel ordre de plantes adopté dans les démonstrations du Jardin royal[1].  Quinze ans plus tard, c'est dans Genera Plantarum qu'il détaillera ce système de classification qui s'oppose à celui proposé par Linné quelques décennies plus tôt. De Jussieu y décrit 15 classes, 100 familles et environ 400 genres de plantes[2].
-Cet ouvrage est considéré comme la base de la nomenclature des familles par le Code international de la nomenclature botanique[3].
+Genera Plantarum est un ouvrage du botaniste français Antoine-Laurent de Jussieu publié en 1789. L'auteur reprend la méthode de classification naturelle des plantes proposée par son oncle Bernard de Jussieu. Alors que celui-ci s'était abstenu de publier quoi que soit sur le sujet, son neveu, Antoine-Laurent fit la présentation de ce système en 1774 dans un mémoire qu'il lut à l'Académie des sciences intitulé: Exposition d'un nouvel ordre de plantes adopté dans les démonstrations du Jardin royal.  Quinze ans plus tard, c'est dans Genera Plantarum qu'il détaillera ce système de classification qui s'oppose à celui proposé par Linné quelques décennies plus tôt. De Jussieu y décrit 15 classes, 100 familles et environ 400 genres de plantes.
+Cet ouvrage est considéré comme la base de la nomenclature des familles par le Code international de la nomenclature botanique.
 </t>
         </is>
       </c>
